--- a/LAB3/Lista_componenti_Lab3_Elnap_(CurrentSensing).xlsx
+++ b/LAB3/Lista_componenti_Lab3_Elnap_(CurrentSensing).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skipi\Desktop\Leo\PoliTo\Anno4\Semestre2\ANALabs\LAB3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0DABF99E-0B40-4F58-A7D2-166358358B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B627AA-220E-41B7-9C9D-87D18D461A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>link sito 1</t>
   </si>
@@ -50,9 +50,6 @@
     <t>Codice catalogo</t>
   </si>
   <si>
-    <t>Prezzo totale          IVA INCLUSA</t>
-  </si>
-  <si>
     <t>TOTALE</t>
   </si>
   <si>
@@ -74,61 +71,40 @@
     <t>Resistore 15kOhm 1% 1/4W SMD</t>
   </si>
   <si>
-    <t>71-CRCW1206-169K</t>
-  </si>
-  <si>
-    <t>Resistore 169kOhm 1% 1/4W SMD</t>
-  </si>
-  <si>
-    <t>71-CRCW1206-2.21K-E3</t>
-  </si>
-  <si>
-    <t>Resistore 2.21kOhm 1% 1/4W SMD</t>
-  </si>
-  <si>
     <t>71-CRCW1206-20.5K-E3</t>
   </si>
   <si>
     <t>Resistore 20.5kOhm 1% 1/4W SMD</t>
   </si>
   <si>
-    <t>71-CRCW1206-6.19K-E3</t>
-  </si>
-  <si>
-    <t>Resistore 6.19kOhm 1% 1/4W SMD</t>
-  </si>
-  <si>
-    <t>71-CRCW1206-9.76K</t>
-  </si>
-  <si>
-    <t>Resistore 9.76kOhm 1% 1/4W SMD</t>
-  </si>
-  <si>
-    <t>Prezzo singolo         IVA INCLUSA</t>
-  </si>
-  <si>
-    <t>80-C1812C394F3J</t>
-  </si>
-  <si>
     <t>80-C1206C104F3G</t>
   </si>
   <si>
     <t>Capacitore .1uF 1% 25V SMD</t>
   </si>
   <si>
-    <t>Capacitore .39uF 1% 25V SMD</t>
-  </si>
-  <si>
     <t>595-INA290A1IDCKR</t>
   </si>
   <si>
     <t>INA290A1</t>
   </si>
   <si>
-    <t>595-OPA391DCKR</t>
-  </si>
-  <si>
-    <t>OPA391</t>
+    <t>Resistore 2.1kOhm 1% 1/4W SMD</t>
+  </si>
+  <si>
+    <t>71-CRCW1206-2.1K-E3</t>
+  </si>
+  <si>
+    <t>Resistore 130kOhm 1% 1/4W SMD</t>
+  </si>
+  <si>
+    <t>71-CRCW1206-130K</t>
+  </si>
+  <si>
+    <t>ADA4528</t>
+  </si>
+  <si>
+    <t>584-ADA4528-1ARMZ</t>
   </si>
 </sst>
 </file>
@@ -137,9 +113,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.000\ [$€-410]_-;\-* #,##0.000\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.000\ [$€-410]_-;\-* #,##0.000\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +151,21 @@
       <name val="Arial"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,7 +389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -427,16 +418,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -448,20 +439,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -476,18 +466,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -823,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:H29"/>
+  <dimension ref="A3:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -835,15 +829,15 @@
     <col min="6" max="6" width="20.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
@@ -853,283 +847,180 @@
       <c r="C4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>4</v>
-      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.88400000000000001</v>
-      </c>
-      <c r="E5" s="15">
-        <f>PRODUCT(B5,D5)</f>
-        <v>0.88400000000000001</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <v>1</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.105</v>
-      </c>
-      <c r="E6" s="15">
-        <f t="shared" ref="E6:E12" si="0">PRODUCT(B6,D6)</f>
-        <v>0.105</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.16200000000000001</v>
-      </c>
-      <c r="E7" s="15">
-        <f t="shared" si="0"/>
-        <v>0.16200000000000001</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.105</v>
-      </c>
-      <c r="E8" s="15">
-        <f t="shared" si="0"/>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="27" x14ac:dyDescent="0.45">
+      <c r="C8" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.45">
+      <c r="A12" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="17">
+        <v>1</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="15">
-        <v>0.105</v>
-      </c>
-      <c r="E9" s="15">
-        <f t="shared" si="0"/>
-        <v>0.105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="B14" s="26">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="E10" s="15">
-        <f t="shared" si="0"/>
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A11" s="5" t="s">
+      <c r="C14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B15" s="26">
         <v>1</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="15">
-        <v>0.247</v>
-      </c>
-      <c r="E11" s="15">
-        <f t="shared" si="0"/>
-        <v>0.247</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="17">
-        <v>2</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="19">
-        <v>6.18</v>
-      </c>
-      <c r="E12" s="19">
-        <f t="shared" si="0"/>
-        <v>12.36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="27" x14ac:dyDescent="0.45">
-      <c r="A13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="27">
-        <v>1</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="29">
-        <v>6.07</v>
-      </c>
-      <c r="E13" s="29">
-        <f t="shared" ref="E13" si="1">PRODUCT(B13,D13)</f>
-        <v>6.07</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="27">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" s="29">
-        <v>2.61</v>
-      </c>
-      <c r="E14" s="29">
-        <f>PRODUCT(B14,D14)</f>
-        <v>2.61</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="27">
-        <v>2</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="29">
-        <v>1.98</v>
-      </c>
-      <c r="E15" s="29">
-        <f t="shared" ref="E14:E15" si="2">PRODUCT(B15,D15)</f>
-        <v>3.96</v>
-      </c>
+      <c r="C15" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
       <c r="F15" s="13"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A16" s="22"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="23"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" s="22"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27.75" x14ac:dyDescent="0.45">
+      <c r="A24" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="27.75" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="32"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="31">
+      <c r="B24" s="31"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25" s="30">
         <f>SUM(E5:E15)</f>
-        <v>26.702999999999999</v>
+        <v>0</v>
       </c>
       <c r="B25" s="13"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B27" s="30"/>
-      <c r="C27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="29"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B28" s="13"/>
-      <c r="C28" s="20"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -1146,18 +1037,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1329,18 +1220,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{523DC988-CDF6-41EA-800E-3F6EF7B172CB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074C0485-EBDC-40B4-B595-49297E879659}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074C0485-EBDC-40B4-B595-49297E879659}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{523DC988-CDF6-41EA-800E-3F6EF7B172CB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
